--- a/planning/assets/formatsXlsx/Moldes.xlsx
+++ b/planning/assets/formatsXlsx/Moldes.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>tiempo_ensamblaje</t>
   </si>
   <si>
     <t>molde</t>
+  </si>
+  <si>
+    <t>referencia</t>
   </si>
 </sst>
 </file>
@@ -68,7 +71,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -115,6 +118,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -123,7 +152,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -140,6 +169,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -147,7 +185,7 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
     <dxf>
       <font>
         <strike val="0"/>
@@ -162,12 +200,8 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <left/>
+        <right/>
         <top/>
         <bottom/>
       </border>
@@ -218,6 +252,22 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -225,8 +275,12 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -249,10 +303,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:B7" totalsRowShown="0" headerRowDxfId="0" dataDxfId="4" headerRowBorderDxfId="1">
-  <tableColumns count="2">
-    <tableColumn id="1" name="molde" dataDxfId="3"/>
-    <tableColumn id="2" name="tiempo_ensamblaje" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:C7" totalsRowShown="0" headerRowDxfId="0" dataDxfId="6" headerRowBorderDxfId="1" tableBorderDxfId="5">
+  <tableColumns count="3">
+    <tableColumn id="1" name="referencia" dataDxfId="4"/>
+    <tableColumn id="2" name="molde" dataDxfId="2"/>
+    <tableColumn id="3" name="tiempo_ensamblaje" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -546,14 +601,14 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.42578125" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.85546875" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
@@ -571,36 +626,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="5"/>
+      <c r="A2" s="8"/>
       <c r="B2" s="5"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="5"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="5"/>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="5"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="5"/>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="5"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="5"/>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="5"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="5"/>
+      <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="6"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="6"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="13" spans="1:8">
       <c r="H13" s="4"/>

--- a/planning/assets/formatsXlsx/Moldes.xlsx
+++ b/planning/assets/formatsXlsx/Moldes.xlsx
@@ -14,22 +14,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>tiempo_ensamblaje</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>molde</t>
   </si>
   <si>
     <t>referencia</t>
   </si>
+  <si>
+    <t>tiempo_montaje</t>
+  </si>
+  <si>
+    <t>tiempo_montaje_produccion</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +65,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -71,7 +84,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -144,6 +157,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -152,7 +187,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -178,6 +213,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -185,36 +232,7 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <strike val="0"/>
@@ -266,6 +284,30 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -297,17 +339,47 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:C7" totalsRowShown="0" headerRowDxfId="0" dataDxfId="6" headerRowBorderDxfId="1" tableBorderDxfId="5">
-  <tableColumns count="3">
-    <tableColumn id="1" name="referencia" dataDxfId="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:D7" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
+  <tableColumns count="4">
+    <tableColumn id="1" name="referencia" dataDxfId="3"/>
     <tableColumn id="2" name="molde" dataDxfId="2"/>
-    <tableColumn id="3" name="tiempo_ensamblaje" dataDxfId="3"/>
+    <tableColumn id="3" name="tiempo_montaje" dataDxfId="1"/>
+    <tableColumn id="4" name="tiempo_montaje_produccion" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -601,7 +673,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -609,7 +681,7 @@
     <col min="1" max="1" width="31.42578125" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.85546875" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.7109375" customWidth="1"/>
@@ -627,44 +699,53 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18">
       <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>0</v>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="8"/>
       <c r="B2" s="5"/>
       <c r="C2" s="8"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="8"/>
       <c r="B3" s="5"/>
       <c r="C3" s="8"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8"/>
       <c r="B4" s="5"/>
       <c r="C4" s="8"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8"/>
       <c r="B5" s="5"/>
       <c r="C5" s="8"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8"/>
       <c r="B6" s="5"/>
       <c r="C6" s="8"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8"/>
       <c r="B7" s="6"/>
       <c r="C7" s="8"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="13" spans="1:8">
       <c r="H13" s="4"/>

--- a/planning/assets/formatsXlsx/Moldes.xlsx
+++ b/planning/assets/formatsXlsx/Moldes.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36281F38-1DE9-4125-8155-1106B3B69DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>molde</t>
   </si>
@@ -27,12 +28,18 @@
   <si>
     <t>tiempo_montaje_produccion</t>
   </si>
+  <si>
+    <t>numero_cavidades</t>
+  </si>
+  <si>
+    <t>cavidades_disponibles</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,7 +91,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -170,13 +177,31 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -187,7 +212,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -218,13 +243,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -232,7 +269,7 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
     <dxf>
       <font>
         <strike val="0"/>
@@ -245,7 +282,44 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -269,7 +343,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -283,7 +357,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -307,7 +381,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -337,7 +411,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -360,7 +434,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -370,16 +444,26 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:D7" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
-  <tableColumns count="4">
-    <tableColumn id="1" name="referencia" dataDxfId="3"/>
-    <tableColumn id="2" name="molde" dataDxfId="2"/>
-    <tableColumn id="3" name="tiempo_montaje" dataDxfId="1"/>
-    <tableColumn id="4" name="tiempo_montaje_produccion" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:F7" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="referencia" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="molde" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="tiempo_montaje" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="tiempo_montaje_produccion" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{92BF4F4B-27C1-4F61-B96C-6062B72B773D}" name="numero_cavidades" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{DAF60533-A99A-42CF-B2D9-57F87E95DC32}" name="cavidades_disponibles" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -428,7 +512,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -460,9 +544,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -494,6 +596,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -669,21 +789,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="41.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.7109375" customWidth="1"/>
     <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.42578125" customWidth="1"/>
@@ -697,7 +816,7 @@
     <col min="17" max="17" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -710,87 +829,105 @@
       <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="E1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="5"/>
       <c r="C2" s="8"/>
-      <c r="D2" s="12"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="D2" s="15"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="5"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="13"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="D3" s="16"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="5"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="13"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="D4" s="16"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="5"/>
       <c r="C5" s="8"/>
-      <c r="D5" s="13"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="D5" s="16"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="5"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="13"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="D6" s="16"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="6"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="14"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="D7" s="17"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H13" s="4"/>
     </row>
-    <row r="18" spans="4:5" ht="21">
+    <row r="18" spans="4:5" ht="21" x14ac:dyDescent="0.4">
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="4:5" ht="21">
+    <row r="19" spans="4:5" ht="21" x14ac:dyDescent="0.4">
       <c r="D19" s="2"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="4:5" ht="21">
+    <row r="20" spans="4:5" ht="21" x14ac:dyDescent="0.4">
       <c r="D20" s="2"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="4:5" ht="21">
+    <row r="21" spans="4:5" ht="21" x14ac:dyDescent="0.4">
       <c r="D21" s="2"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="4:5" ht="21">
+    <row r="22" spans="4:5" ht="21" x14ac:dyDescent="0.4">
       <c r="D22" s="2"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="4:5" ht="21">
+    <row r="23" spans="4:5" ht="21" x14ac:dyDescent="0.4">
       <c r="D23" s="2"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="4:5" ht="21">
+    <row r="24" spans="4:5" ht="21" x14ac:dyDescent="0.4">
       <c r="D24" s="2"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="4:5" ht="21">
+    <row r="25" spans="4:5" ht="21" x14ac:dyDescent="0.4">
       <c r="D25" s="2"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="4:5" ht="21">
+    <row r="26" spans="4:5" ht="21" x14ac:dyDescent="0.4">
       <c r="D26" s="2"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="4:5" ht="21">
+    <row r="27" spans="4:5" ht="21" x14ac:dyDescent="0.4">
       <c r="D27" s="2"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="4:5">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
     </row>
   </sheetData>
